--- a/Lab/employees1.xlsx
+++ b/Lab/employees1.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Swetha</t>
-  </si>
-  <si>
     <t>Finance</t>
   </si>
   <si>
@@ -61,18 +58,33 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Xlsx1Swetha</t>
+  </si>
+  <si>
+    <t>Doj</t>
+  </si>
+  <si>
+    <t>DoR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,8 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,9 +427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -421,9 +439,11 @@
     <col min="2" max="2" width="4.5703125" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,10 +456,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>26</v>
@@ -448,12 +474,19 @@
         <v>49000</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45139</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2+2000</f>
+        <v>47139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -462,12 +495,19 @@
         <v>50000</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45140</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F6" si="0">E3+2000</f>
+        <v>47140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -476,12 +516,19 @@
         <v>48000</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45141</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>47141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
       </c>
       <c r="B5">
         <v>29</v>
@@ -490,12 +537,19 @@
         <v>52000</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45142</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>47142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
       </c>
       <c r="B6">
         <v>31</v>
@@ -504,10 +558,18 @@
         <v>55000</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45143</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>47143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>